--- a/static/excel/modelo_ejemplo.xlsx
+++ b/static/excel/modelo_ejemplo.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">MODELO</t>
   </si>
   <si>
-    <t xml:space="preserve">TIPO VEHICULO</t>
+    <t xml:space="preserve">TIPO VEHÍCULO</t>
   </si>
   <si>
     <t xml:space="preserve">PATENTE</t>
@@ -52,25 +52,25 @@
     <t xml:space="preserve">FECHA DE VIGENCIA</t>
   </si>
   <si>
-    <t xml:space="preserve">OPERACION</t>
+    <t xml:space="preserve">OPERACIÓN</t>
   </si>
   <si>
     <t xml:space="preserve">COBERTURA</t>
   </si>
   <si>
-    <t xml:space="preserve">Suma Aseg.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIMA ANUAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIMA VIGENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREMIO ANUAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREMIO VIGENTE</t>
+    <t xml:space="preserve">SUMA ASEG.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMA TÉCNICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMA PÓLIZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREMIO SIN IVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREMIO CON IVA</t>
   </si>
 </sst>
 </file>
@@ -455,10 +455,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:XFD15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L46" activeCellId="0" sqref="L46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -472,10 +472,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="16.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="21.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="22.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="19.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -519,7 +520,7 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -531,6 +532,8 @@
       <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="XFC1" s="0"/>
+      <c r="XFD1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
@@ -568,7 +571,6 @@
       <c r="F6" s="1"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
       <c r="M6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,7 +581,6 @@
       <c r="F7" s="1"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="5"/>
       <c r="M7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -590,7 +591,6 @@
       <c r="F8" s="1"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="5"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -652,17 +652,21 @@
       <c r="M15" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C50" type="list">
+  <dataValidations count="4">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C400" type="list">
       <formula1>"AUTO,PICK UP 4X4,PICK UP CLASE B,PICK UP CLASE A"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2:H50" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2:H400" type="list">
       <formula1>"ZONA CAPITAL FEDERAL,ZONA NORTE,ZONA OESTE,ZONA SUR,ZONA LA PLATA,ZONA MAR DEL PLATA,ZONA ROSARIO,ZONA SANTA FE,ZONA CORDOBA,ZONA MENDOZA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L50" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L400" type="list">
       <formula1>"COB BASICA,COB CLASICA,POLIZA 10,TODO AUTO"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K2:K400" type="list">
+      <formula1>"ALTA,BAJA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/static/excel/modelo_ejemplo.xlsx
+++ b/static/excel/modelo_ejemplo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">MARCA</t>
   </si>
@@ -40,10 +40,7 @@
     <t xml:space="preserve">0KM</t>
   </si>
   <si>
-    <t xml:space="preserve">IMPORTADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZONA</t>
+    <t xml:space="preserve">LOCALIDAD</t>
   </si>
   <si>
     <t xml:space="preserve">FECHA DE OPERACION</t>
@@ -455,10 +452,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD15"/>
+  <dimension ref="A1:P400"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -466,18 +463,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="18.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="21.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="22.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="22.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="19.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -520,7 +517,7 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -529,39 +526,38 @@
       <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="XFC1" s="0"/>
-      <c r="XFD1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
@@ -569,9 +565,10 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="1"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="M6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
@@ -579,9 +576,10 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="1"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="M7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
@@ -589,37 +587,42 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="1"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="M8" s="5"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
@@ -627,9 +630,10 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="1"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="M13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
@@ -637,9 +641,10 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="1"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="M14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
@@ -647,25 +652,1177 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="1"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="M15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G58" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G72" s="0"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G73" s="0"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G74" s="0"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G79" s="0"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G82" s="0"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G83" s="0"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G84" s="0"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G85" s="0"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G86" s="0"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G87" s="0"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G88" s="0"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G89" s="0"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G90" s="0"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G91" s="0"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G92" s="0"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G93" s="0"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G94" s="0"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G95" s="0"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G96" s="0"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G97" s="0"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G98" s="0"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G99" s="0"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G100" s="0"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G101" s="0"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G102" s="0"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G103" s="0"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G104" s="0"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G105" s="0"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G106" s="0"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G107" s="0"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G108" s="0"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G109" s="0"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G110" s="0"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G111" s="0"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G112" s="0"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G113" s="0"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G114" s="0"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G115" s="0"/>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G116" s="0"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G117" s="0"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G118" s="0"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G119" s="0"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G120" s="0"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G121" s="0"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G122" s="0"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G123" s="0"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G124" s="0"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G125" s="0"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G126" s="0"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G127" s="0"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G128" s="0"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G129" s="0"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G130" s="0"/>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G131" s="0"/>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G132" s="0"/>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G133" s="0"/>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G134" s="0"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G135" s="0"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G136" s="0"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G137" s="0"/>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G138" s="0"/>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G139" s="0"/>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G140" s="0"/>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G141" s="0"/>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G142" s="0"/>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G143" s="0"/>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G144" s="0"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G145" s="0"/>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G146" s="0"/>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G147" s="0"/>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G148" s="0"/>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G149" s="0"/>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G150" s="0"/>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G151" s="0"/>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G152" s="0"/>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G153" s="0"/>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G154" s="0"/>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G155" s="0"/>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G156" s="0"/>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G157" s="0"/>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G158" s="0"/>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G159" s="0"/>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G160" s="0"/>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G161" s="0"/>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G162" s="0"/>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G163" s="0"/>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G164" s="0"/>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G165" s="0"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G166" s="0"/>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G167" s="0"/>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G168" s="0"/>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G169" s="0"/>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G170" s="0"/>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G171" s="0"/>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G172" s="0"/>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G173" s="0"/>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G174" s="0"/>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G175" s="0"/>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G176" s="0"/>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G177" s="0"/>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G178" s="0"/>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G179" s="0"/>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G180" s="0"/>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G181" s="0"/>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G182" s="0"/>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G183" s="0"/>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G184" s="0"/>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G185" s="0"/>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G186" s="0"/>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G187" s="0"/>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G188" s="0"/>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G189" s="0"/>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G190" s="0"/>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G191" s="0"/>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G192" s="0"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G193" s="0"/>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G194" s="0"/>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G195" s="0"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G196" s="0"/>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G197" s="0"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G198" s="0"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G199" s="0"/>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G200" s="0"/>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G201" s="0"/>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G202" s="0"/>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G203" s="0"/>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G204" s="0"/>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G205" s="0"/>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G206" s="0"/>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G207" s="0"/>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G208" s="0"/>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G209" s="0"/>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G210" s="0"/>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G211" s="0"/>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G212" s="0"/>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G213" s="0"/>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G214" s="0"/>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G215" s="0"/>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G216" s="0"/>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G217" s="0"/>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G218" s="0"/>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G219" s="0"/>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G220" s="0"/>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G221" s="0"/>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G222" s="0"/>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G223" s="0"/>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G224" s="0"/>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G225" s="0"/>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G226" s="0"/>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G227" s="0"/>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G228" s="0"/>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G229" s="0"/>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G230" s="0"/>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G231" s="0"/>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G232" s="0"/>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G233" s="0"/>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G234" s="0"/>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G235" s="0"/>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G236" s="0"/>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G237" s="0"/>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G238" s="0"/>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G239" s="0"/>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G240" s="0"/>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G241" s="0"/>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G242" s="0"/>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G243" s="0"/>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G244" s="0"/>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G245" s="0"/>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G246" s="0"/>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G247" s="0"/>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G248" s="0"/>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G249" s="0"/>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G250" s="0"/>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G251" s="0"/>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G252" s="0"/>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G253" s="0"/>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G254" s="0"/>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G255" s="0"/>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G256" s="0"/>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G257" s="0"/>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G258" s="0"/>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G259" s="0"/>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G260" s="0"/>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G261" s="0"/>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G262" s="0"/>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G263" s="0"/>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G264" s="0"/>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G265" s="0"/>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G266" s="0"/>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G267" s="0"/>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G268" s="0"/>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G269" s="0"/>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G270" s="0"/>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G271" s="0"/>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G272" s="0"/>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G273" s="0"/>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G274" s="0"/>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G275" s="0"/>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G276" s="0"/>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G277" s="0"/>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G278" s="0"/>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G279" s="0"/>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G280" s="0"/>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G281" s="0"/>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G282" s="0"/>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G283" s="0"/>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G284" s="0"/>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G285" s="0"/>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G286" s="0"/>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G287" s="0"/>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G288" s="0"/>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G289" s="0"/>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G290" s="0"/>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G291" s="0"/>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G292" s="0"/>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G293" s="0"/>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G294" s="0"/>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G295" s="0"/>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G296" s="0"/>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G297" s="0"/>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G298" s="0"/>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G299" s="0"/>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G300" s="0"/>
+    </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G301" s="0"/>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G302" s="0"/>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G303" s="0"/>
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G304" s="0"/>
+    </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G305" s="0"/>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G306" s="0"/>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G307" s="0"/>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G308" s="0"/>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G309" s="0"/>
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G310" s="0"/>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G311" s="0"/>
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G312" s="0"/>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G313" s="0"/>
+    </row>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G314" s="0"/>
+    </row>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G315" s="0"/>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G316" s="0"/>
+    </row>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G317" s="0"/>
+    </row>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G318" s="0"/>
+    </row>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G319" s="0"/>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G320" s="0"/>
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G321" s="0"/>
+    </row>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G322" s="0"/>
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G323" s="0"/>
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G324" s="0"/>
+    </row>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G325" s="0"/>
+    </row>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G326" s="0"/>
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G327" s="0"/>
+    </row>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G328" s="0"/>
+    </row>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G329" s="0"/>
+    </row>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G330" s="0"/>
+    </row>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G331" s="0"/>
+    </row>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G332" s="0"/>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G333" s="0"/>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G334" s="0"/>
+    </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G335" s="0"/>
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G336" s="0"/>
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G337" s="0"/>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G338" s="0"/>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G339" s="0"/>
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G340" s="0"/>
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G341" s="0"/>
+    </row>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G342" s="0"/>
+    </row>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G343" s="0"/>
+    </row>
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G344" s="0"/>
+    </row>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G345" s="0"/>
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G346" s="0"/>
+    </row>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G347" s="0"/>
+    </row>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G348" s="0"/>
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G349" s="0"/>
+    </row>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G350" s="0"/>
+    </row>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G351" s="0"/>
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G352" s="0"/>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G353" s="0"/>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G354" s="0"/>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G355" s="0"/>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G356" s="0"/>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G357" s="0"/>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G358" s="0"/>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G359" s="0"/>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G360" s="0"/>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G361" s="0"/>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G362" s="0"/>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G363" s="0"/>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G364" s="0"/>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G365" s="0"/>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G366" s="0"/>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G367" s="0"/>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G368" s="0"/>
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G369" s="0"/>
+    </row>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G370" s="0"/>
+    </row>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G371" s="0"/>
+    </row>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G372" s="0"/>
+    </row>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G373" s="0"/>
+    </row>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G374" s="0"/>
+    </row>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G375" s="0"/>
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G376" s="0"/>
+    </row>
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G377" s="0"/>
+    </row>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G378" s="0"/>
+    </row>
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G379" s="0"/>
+    </row>
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G380" s="0"/>
+    </row>
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G381" s="0"/>
+    </row>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G382" s="0"/>
+    </row>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G383" s="0"/>
+    </row>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G384" s="0"/>
+    </row>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G385" s="0"/>
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G386" s="0"/>
+    </row>
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G387" s="0"/>
+    </row>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G388" s="0"/>
+    </row>
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G389" s="0"/>
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G390" s="0"/>
+    </row>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G391" s="0"/>
+    </row>
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G392" s="0"/>
+    </row>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G393" s="0"/>
+    </row>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G394" s="0"/>
+    </row>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G395" s="0"/>
+    </row>
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G396" s="0"/>
+    </row>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G397" s="0"/>
+    </row>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G398" s="0"/>
+    </row>
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G399" s="0"/>
+    </row>
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G400" s="0"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C400" type="list">
       <formula1>"AUTO,PICK UP 4X4,PICK UP CLASE B,PICK UP CLASE A"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2:H400" type="list">
-      <formula1>"ZONA CAPITAL FEDERAL,ZONA NORTE,ZONA OESTE,ZONA SUR,ZONA LA PLATA,ZONA MAR DEL PLATA,ZONA ROSARIO,ZONA SANTA FE,ZONA CORDOBA,ZONA MENDOZA"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L400" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K2:K400" type="list">
       <formula1>"COB BASICA,COB CLASICA,POLIZA 10,TODO AUTO"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K2:K400" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2:J400" type="list">
       <formula1>"ALTA,BAJA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
